--- a/predictions полгода до/Прогнозы_ETS_HA4.xlsx
+++ b/predictions полгода до/Прогнозы_ETS_HA4.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21374966.42614406</v>
+        <v>20407535.73865562</v>
       </c>
       <c r="C2" t="n">
-        <v>21137967.40878659</v>
+        <v>17954987.16932445</v>
       </c>
       <c r="D2" t="n">
-        <v>18793542.33666581</v>
+        <v>19176139.26457553</v>
       </c>
       <c r="E2" t="n">
-        <v>20045104.83860192</v>
+        <v>18214727.47611675</v>
       </c>
       <c r="F2" t="n">
-        <v>20354875.62777594</v>
+        <v>18279536.25714318</v>
       </c>
       <c r="G2" t="n">
-        <v>20117876.61041848</v>
+        <v>15826987.68781201</v>
       </c>
       <c r="H2" t="n">
-        <v>17773451.5382977</v>
+        <v>17048139.78306309</v>
       </c>
       <c r="I2" t="n">
-        <v>19025014.04023381</v>
+        <v>16086727.99460431</v>
       </c>
       <c r="J2" t="n">
-        <v>19334784.82940783</v>
+        <v>16151536.77563074</v>
       </c>
       <c r="K2" t="n">
-        <v>19097785.81205037</v>
+        <v>13698988.20629957</v>
       </c>
       <c r="L2" t="n">
-        <v>16753360.73992958</v>
+        <v>14920140.30155066</v>
       </c>
       <c r="M2" t="n">
-        <v>18004923.2418657</v>
+        <v>13958728.51309188</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14038889.27167072</v>
+        <v>9441939.381201401</v>
       </c>
       <c r="C3" t="n">
-        <v>13223484.49873614</v>
+        <v>9996435.5166048</v>
       </c>
       <c r="D3" t="n">
-        <v>14050241.38651622</v>
+        <v>10550699.36429322</v>
       </c>
       <c r="E3" t="n">
-        <v>14104816.60130394</v>
+        <v>11106085.2394352</v>
       </c>
       <c r="F3" t="n">
-        <v>17890231.28531177</v>
+        <v>11660154.71939088</v>
       </c>
       <c r="G3" t="n">
-        <v>17074826.51237719</v>
+        <v>12214650.85479428</v>
       </c>
       <c r="H3" t="n">
-        <v>17901583.40015727</v>
+        <v>12768914.70248271</v>
       </c>
       <c r="I3" t="n">
-        <v>17956158.61494499</v>
+        <v>13324300.57762468</v>
       </c>
       <c r="J3" t="n">
-        <v>21741573.29895281</v>
+        <v>13878370.05758037</v>
       </c>
       <c r="K3" t="n">
-        <v>20926168.52601823</v>
+        <v>14432866.19298377</v>
       </c>
       <c r="L3" t="n">
-        <v>21752925.41379831</v>
+        <v>14987130.04067219</v>
       </c>
       <c r="M3" t="n">
-        <v>21807500.62858603</v>
+        <v>15542515.91581417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5107894.134394217</v>
+        <v>11594045.84895868</v>
       </c>
       <c r="C4" t="n">
-        <v>5101287.56245616</v>
+        <v>11559186.67836377</v>
       </c>
       <c r="D4" t="n">
-        <v>5109208.061736697</v>
+        <v>11604193.98581821</v>
       </c>
       <c r="E4" t="n">
-        <v>5109923.091811953</v>
+        <v>11605225.69180065</v>
       </c>
       <c r="F4" t="n">
-        <v>5109935.586093977</v>
+        <v>11598912.60180972</v>
       </c>
       <c r="G4" t="n">
-        <v>5103329.01415592</v>
+        <v>11564053.43121481</v>
       </c>
       <c r="H4" t="n">
-        <v>5111249.513436457</v>
+        <v>11609060.73866925</v>
       </c>
       <c r="I4" t="n">
-        <v>5111964.543511713</v>
+        <v>11610092.44465169</v>
       </c>
       <c r="J4" t="n">
-        <v>5111977.037793737</v>
+        <v>11603779.35466076</v>
       </c>
       <c r="K4" t="n">
-        <v>5105370.465855679</v>
+        <v>11568920.18406584</v>
       </c>
       <c r="L4" t="n">
-        <v>5113290.965136217</v>
+        <v>11613927.49152029</v>
       </c>
       <c r="M4" t="n">
-        <v>5114005.995211473</v>
+        <v>11614959.19750272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3973671.649765585</v>
+        <v>24554744.16899481</v>
       </c>
       <c r="C5" t="n">
-        <v>5585084.308182685</v>
+        <v>20350221.66433273</v>
       </c>
       <c r="D5" t="n">
-        <v>7196540.173690918</v>
+        <v>24111233.08471044</v>
       </c>
       <c r="E5" t="n">
-        <v>8807979.7480684</v>
+        <v>27257172.28083575</v>
       </c>
       <c r="F5" t="n">
-        <v>10419290.39783398</v>
+        <v>28914231.86673519</v>
       </c>
       <c r="G5" t="n">
-        <v>12030703.05625108</v>
+        <v>24709709.3620731</v>
       </c>
       <c r="H5" t="n">
-        <v>13642158.92175932</v>
+        <v>28470720.78245082</v>
       </c>
       <c r="I5" t="n">
-        <v>15253598.4961368</v>
+        <v>31616659.97857613</v>
       </c>
       <c r="J5" t="n">
-        <v>16864909.14590238</v>
+        <v>33273719.56447557</v>
       </c>
       <c r="K5" t="n">
-        <v>18476321.80431949</v>
+        <v>29069197.05981348</v>
       </c>
       <c r="L5" t="n">
-        <v>20087777.66982772</v>
+        <v>32830208.48019119</v>
       </c>
       <c r="M5" t="n">
-        <v>21699217.24420521</v>
+        <v>35976147.6763165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10428764.80933826</v>
+        <v>2152829.020849598</v>
       </c>
       <c r="C6" t="n">
-        <v>10808919.49268436</v>
+        <v>4110654.138526808</v>
       </c>
       <c r="D6" t="n">
-        <v>10114642.92523922</v>
+        <v>1964560.042377142</v>
       </c>
       <c r="E6" t="n">
-        <v>11082966.48257107</v>
+        <v>3459001.217757981</v>
       </c>
       <c r="F6" t="n">
-        <v>11938834.54433322</v>
+        <v>2464755.756626203</v>
       </c>
       <c r="G6" t="n">
-        <v>12318989.22767932</v>
+        <v>4422580.874303413</v>
       </c>
       <c r="H6" t="n">
-        <v>11624712.66023419</v>
+        <v>2276486.778153747</v>
       </c>
       <c r="I6" t="n">
-        <v>12593036.21756604</v>
+        <v>3770927.953534586</v>
       </c>
       <c r="J6" t="n">
-        <v>13448904.27932819</v>
+        <v>2776682.492402808</v>
       </c>
       <c r="K6" t="n">
-        <v>13829058.96267428</v>
+        <v>4734507.610080018</v>
       </c>
       <c r="L6" t="n">
-        <v>13134782.39522915</v>
+        <v>2588413.513930352</v>
       </c>
       <c r="M6" t="n">
-        <v>14103105.952561</v>
+        <v>4082854.689311191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2635908.866600982</v>
+        <v>8427635.176445778</v>
       </c>
       <c r="C7" t="n">
-        <v>3474078.20973723</v>
+        <v>8303569.407340039</v>
       </c>
       <c r="D7" t="n">
-        <v>2710856.106493841</v>
+        <v>8770512.459150888</v>
       </c>
       <c r="E7" t="n">
-        <v>2963824.629623421</v>
+        <v>8884617.210043255</v>
       </c>
       <c r="F7" t="n">
-        <v>3004862.685382457</v>
+        <v>8901644.542215575</v>
       </c>
       <c r="G7" t="n">
-        <v>3843032.028518705</v>
+        <v>8777578.773109835</v>
       </c>
       <c r="H7" t="n">
-        <v>3079809.925275316</v>
+        <v>9244521.824920684</v>
       </c>
       <c r="I7" t="n">
-        <v>3332778.448404896</v>
+        <v>9358626.575813051</v>
       </c>
       <c r="J7" t="n">
-        <v>3373816.504163931</v>
+        <v>9375653.907985371</v>
       </c>
       <c r="K7" t="n">
-        <v>4211985.847300179</v>
+        <v>9251588.138879631</v>
       </c>
       <c r="L7" t="n">
-        <v>3448763.74405679</v>
+        <v>9718531.19069048</v>
       </c>
       <c r="M7" t="n">
-        <v>3701732.26718637</v>
+        <v>9832635.941582847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1754857.3787257</v>
+        <v>21103685.47422081</v>
       </c>
       <c r="C8" t="n">
-        <v>1733370.27183932</v>
+        <v>16077861.91021237</v>
       </c>
       <c r="D8" t="n">
-        <v>1424540.659929928</v>
+        <v>18214261.36299716</v>
       </c>
       <c r="E8" t="n">
-        <v>1456028.710581576</v>
+        <v>19242064.33135633</v>
       </c>
       <c r="F8" t="n">
-        <v>1886686.390741276</v>
+        <v>21326100.49709357</v>
       </c>
       <c r="G8" t="n">
-        <v>1865199.283854896</v>
+        <v>16300276.93308513</v>
       </c>
       <c r="H8" t="n">
-        <v>1556369.671945504</v>
+        <v>18436676.38586992</v>
       </c>
       <c r="I8" t="n">
-        <v>1587857.722597151</v>
+        <v>19464479.35422909</v>
       </c>
       <c r="J8" t="n">
-        <v>2018515.402756851</v>
+        <v>21548515.51996633</v>
       </c>
       <c r="K8" t="n">
-        <v>1997028.295870471</v>
+        <v>16522691.95595789</v>
       </c>
       <c r="L8" t="n">
-        <v>1688198.683961079</v>
+        <v>18659091.40874268</v>
       </c>
       <c r="M8" t="n">
-        <v>1719686.734612727</v>
+        <v>19686894.37710185</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2635691.220833575</v>
+        <v>26239664.55857045</v>
       </c>
       <c r="C9" t="n">
-        <v>2635958.062013819</v>
+        <v>24757449.39217884</v>
       </c>
       <c r="D9" t="n">
-        <v>2636397.357308799</v>
+        <v>26956906.97621002</v>
       </c>
       <c r="E9" t="n">
-        <v>2636505.882791099</v>
+        <v>26156343.47586718</v>
       </c>
       <c r="F9" t="n">
-        <v>2637035.021694336</v>
+        <v>28446530.46867736</v>
       </c>
       <c r="G9" t="n">
-        <v>2637301.86287458</v>
+        <v>26964315.30228575</v>
       </c>
       <c r="H9" t="n">
-        <v>2637741.15816956</v>
+        <v>29163772.88631694</v>
       </c>
       <c r="I9" t="n">
-        <v>2637849.683651859</v>
+        <v>28363209.38597409</v>
       </c>
       <c r="J9" t="n">
-        <v>2638378.822555097</v>
+        <v>30653396.37878428</v>
       </c>
       <c r="K9" t="n">
-        <v>2638645.66373534</v>
+        <v>29171181.21239267</v>
       </c>
       <c r="L9" t="n">
-        <v>2639084.959030321</v>
+        <v>31370638.79642385</v>
       </c>
       <c r="M9" t="n">
-        <v>2639193.48451262</v>
+        <v>30570075.296081</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5718406.021907951</v>
+        <v>27358016.82140572</v>
       </c>
       <c r="C10" t="n">
-        <v>5774550.14789679</v>
+        <v>32851458.49558758</v>
       </c>
       <c r="D10" t="n">
-        <v>5047526.915462904</v>
+        <v>38345608.52840302</v>
       </c>
       <c r="E10" t="n">
-        <v>5263470.189105768</v>
+        <v>43841130.72400193</v>
       </c>
       <c r="F10" t="n">
-        <v>6553139.430488414</v>
+        <v>49334868.83298348</v>
       </c>
       <c r="G10" t="n">
-        <v>6609283.556477253</v>
+        <v>54828310.50716534</v>
       </c>
       <c r="H10" t="n">
-        <v>5882260.324043367</v>
+        <v>60322460.53998078</v>
       </c>
       <c r="I10" t="n">
-        <v>6098203.597686231</v>
+        <v>65817982.73557968</v>
       </c>
       <c r="J10" t="n">
-        <v>7387872.839068878</v>
+        <v>71311720.84456125</v>
       </c>
       <c r="K10" t="n">
-        <v>7444016.965057717</v>
+        <v>76805162.51874311</v>
       </c>
       <c r="L10" t="n">
-        <v>6716993.73262383</v>
+        <v>82299312.55155855</v>
       </c>
       <c r="M10" t="n">
-        <v>6932937.006266695</v>
+        <v>87794834.74715747</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3851701.660590949</v>
+        <v>15734011.03408795</v>
       </c>
       <c r="C11" t="n">
-        <v>2457755.196752198</v>
+        <v>16618630.40144145</v>
       </c>
       <c r="D11" t="n">
-        <v>4787143.095186011</v>
+        <v>18457309.88630478</v>
       </c>
       <c r="E11" t="n">
-        <v>2094330.650279504</v>
+        <v>18098964.93865626</v>
       </c>
       <c r="F11" t="n">
-        <v>3856294.975091673</v>
+        <v>18494157.97274421</v>
       </c>
       <c r="G11" t="n">
-        <v>2462348.511252922</v>
+        <v>19378777.34009771</v>
       </c>
       <c r="H11" t="n">
-        <v>4791736.409686736</v>
+        <v>21217456.82496104</v>
       </c>
       <c r="I11" t="n">
-        <v>2098923.964780229</v>
+        <v>20859111.87731251</v>
       </c>
       <c r="J11" t="n">
-        <v>3860888.289592398</v>
+        <v>21254304.91140047</v>
       </c>
       <c r="K11" t="n">
-        <v>2466941.825753647</v>
+        <v>22138924.27875396</v>
       </c>
       <c r="L11" t="n">
-        <v>4796329.724187461</v>
+        <v>23977603.7636173</v>
       </c>
       <c r="M11" t="n">
-        <v>2103517.279280954</v>
+        <v>23619258.81596877</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>608469.7483173701</v>
+        <v>35546551.65154769</v>
       </c>
       <c r="C12" t="n">
-        <v>205525.3226806472</v>
+        <v>36784008.44132463</v>
       </c>
       <c r="D12" t="n">
-        <v>-873.7179407545482</v>
+        <v>41583339.32636458</v>
       </c>
       <c r="E12" t="n">
-        <v>159797.3318820115</v>
+        <v>43694870.53483217</v>
       </c>
       <c r="F12" t="n">
-        <v>406991.9849269629</v>
+        <v>35974687.76013599</v>
       </c>
       <c r="G12" t="n">
-        <v>4047.559290240024</v>
+        <v>37212144.54991294</v>
       </c>
       <c r="H12" t="n">
-        <v>-202351.4813311617</v>
+        <v>42011475.43495289</v>
       </c>
       <c r="I12" t="n">
-        <v>-41680.43150839569</v>
+        <v>44123006.64342048</v>
       </c>
       <c r="J12" t="n">
-        <v>205514.2215365556</v>
+        <v>36402823.8687243</v>
       </c>
       <c r="K12" t="n">
-        <v>-197430.2041001672</v>
+        <v>37640280.65850125</v>
       </c>
       <c r="L12" t="n">
-        <v>-403829.2447215689</v>
+        <v>42439611.5435412</v>
       </c>
       <c r="M12" t="n">
-        <v>-243158.1948988029</v>
+        <v>44551142.75200879</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1487340.320750941</v>
+        <v>37700204.82718958</v>
       </c>
       <c r="C13" t="n">
-        <v>1656287.174765214</v>
+        <v>32376834.79139377</v>
       </c>
       <c r="D13" t="n">
-        <v>1825347.255155823</v>
+        <v>38901513.03475419</v>
       </c>
       <c r="E13" t="n">
-        <v>1994293.041524662</v>
+        <v>39488759.86774787</v>
       </c>
       <c r="F13" t="n">
-        <v>2163394.774346795</v>
+        <v>36568586.99932997</v>
       </c>
       <c r="G13" t="n">
-        <v>2332341.628361069</v>
+        <v>31245216.96353416</v>
       </c>
       <c r="H13" t="n">
-        <v>2501401.708751678</v>
+        <v>37769895.20689458</v>
       </c>
       <c r="I13" t="n">
-        <v>2670347.495120517</v>
+        <v>38357142.03988826</v>
       </c>
       <c r="J13" t="n">
-        <v>2839449.22794265</v>
+        <v>35436969.17147036</v>
       </c>
       <c r="K13" t="n">
-        <v>3008396.081956923</v>
+        <v>30113599.13567455</v>
       </c>
       <c r="L13" t="n">
-        <v>3177456.162347532</v>
+        <v>36638277.37903497</v>
       </c>
       <c r="M13" t="n">
-        <v>3346401.948716371</v>
+        <v>37225524.21202864</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20404.84206442376</v>
+        <v>3181197.52149404</v>
       </c>
       <c r="C14" t="n">
-        <v>-93961.08972784612</v>
+        <v>4322593.776524207</v>
       </c>
       <c r="D14" t="n">
-        <v>-70193.06119654473</v>
+        <v>5464081.947310713</v>
       </c>
       <c r="E14" t="n">
-        <v>48655.0757458725</v>
+        <v>6605412.03532069</v>
       </c>
       <c r="F14" t="n">
-        <v>20384.86366239962</v>
+        <v>7746738.994202363</v>
       </c>
       <c r="G14" t="n">
-        <v>-93981.06812987025</v>
+        <v>8888135.249232529</v>
       </c>
       <c r="H14" t="n">
-        <v>-70213.03959856887</v>
+        <v>10029623.42001904</v>
       </c>
       <c r="I14" t="n">
-        <v>48635.09734384836</v>
+        <v>11170953.50802901</v>
       </c>
       <c r="J14" t="n">
-        <v>20364.88526037549</v>
+        <v>12312280.46691068</v>
       </c>
       <c r="K14" t="n">
-        <v>-94001.04653189439</v>
+        <v>13453676.72194085</v>
       </c>
       <c r="L14" t="n">
-        <v>-70233.018000593</v>
+        <v>14595164.89272736</v>
       </c>
       <c r="M14" t="n">
-        <v>48615.11894182423</v>
+        <v>15736494.98073733</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917053.2976114</v>
+        <v>4032954.916103004</v>
       </c>
       <c r="C15" t="n">
-        <v>988602.6029107244</v>
+        <v>3850848.75971066</v>
       </c>
       <c r="D15" t="n">
-        <v>1060027.481855345</v>
+        <v>3994166.670862138</v>
       </c>
       <c r="E15" t="n">
-        <v>1131528.072171785</v>
+        <v>4197853.03181039</v>
       </c>
       <c r="F15" t="n">
-        <v>1203052.174984497</v>
+        <v>4408461.319694332</v>
       </c>
       <c r="G15" t="n">
-        <v>1274601.480283822</v>
+        <v>4226355.163301988</v>
       </c>
       <c r="H15" t="n">
-        <v>1346026.359228443</v>
+        <v>4369673.074453466</v>
       </c>
       <c r="I15" t="n">
-        <v>1417526.949544883</v>
+        <v>4573359.435401718</v>
       </c>
       <c r="J15" t="n">
-        <v>1489051.052357595</v>
+        <v>4783967.723285659</v>
       </c>
       <c r="K15" t="n">
-        <v>1560600.357656919</v>
+        <v>4601861.566893315</v>
       </c>
       <c r="L15" t="n">
-        <v>1632025.23660154</v>
+        <v>4745179.478044793</v>
       </c>
       <c r="M15" t="n">
-        <v>1703525.82691798</v>
+        <v>4948865.838993046</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290886.864759143</v>
+        <v>12802280.00831148</v>
       </c>
       <c r="C16" t="n">
-        <v>1444202.126960159</v>
+        <v>12206120.33549342</v>
       </c>
       <c r="D16" t="n">
-        <v>1597387.170537551</v>
+        <v>13001843.9868621</v>
       </c>
       <c r="E16" t="n">
-        <v>1750663.790306665</v>
+        <v>13688136.77209803</v>
       </c>
       <c r="F16" t="n">
-        <v>1903917.352895843</v>
+        <v>14587035.39780896</v>
       </c>
       <c r="G16" t="n">
-        <v>2057232.61509686</v>
+        <v>13990875.7249909</v>
       </c>
       <c r="H16" t="n">
-        <v>2210417.658674251</v>
+        <v>14786599.37635958</v>
       </c>
       <c r="I16" t="n">
-        <v>2363694.278443365</v>
+        <v>15472892.16159551</v>
       </c>
       <c r="J16" t="n">
-        <v>2516947.841032543</v>
+        <v>16371790.78730644</v>
       </c>
       <c r="K16" t="n">
-        <v>2670263.10323356</v>
+        <v>15775631.11448839</v>
       </c>
       <c r="L16" t="n">
-        <v>2823448.146810952</v>
+        <v>16571354.76585707</v>
       </c>
       <c r="M16" t="n">
-        <v>2976724.766580067</v>
+        <v>17257647.55109299</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7265772.098245317</v>
+        <v>4873623.906520078</v>
       </c>
       <c r="C17" t="n">
-        <v>8072640.974812523</v>
+        <v>4968854.989383399</v>
       </c>
       <c r="D17" t="n">
-        <v>8880119.509655626</v>
+        <v>5064717.853358144</v>
       </c>
       <c r="E17" t="n">
-        <v>9686801.456896907</v>
+        <v>5159811.058151715</v>
       </c>
       <c r="F17" t="n">
-        <v>10494212.01397607</v>
+        <v>5254967.907209104</v>
       </c>
       <c r="G17" t="n">
-        <v>11301080.89054327</v>
+        <v>5350198.990072425</v>
       </c>
       <c r="H17" t="n">
-        <v>12108559.42538638</v>
+        <v>5446061.85404717</v>
       </c>
       <c r="I17" t="n">
-        <v>12915241.37262766</v>
+        <v>5541155.05884074</v>
       </c>
       <c r="J17" t="n">
-        <v>13722651.92970682</v>
+        <v>5636311.90789813</v>
       </c>
       <c r="K17" t="n">
-        <v>14529520.80627403</v>
+        <v>5731542.99076145</v>
       </c>
       <c r="L17" t="n">
-        <v>15336999.34111713</v>
+        <v>5827405.854736196</v>
       </c>
       <c r="M17" t="n">
-        <v>16143681.28835841</v>
+        <v>5922499.059529766</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1278525.819166966</v>
+        <v>3608461.587935668</v>
       </c>
       <c r="C18" t="n">
-        <v>1539192.99103607</v>
+        <v>3657707.567776208</v>
       </c>
       <c r="D18" t="n">
-        <v>1258944.257587034</v>
+        <v>3606653.349954453</v>
       </c>
       <c r="E18" t="n">
-        <v>1254945.372756235</v>
+        <v>3534317.887042566</v>
       </c>
       <c r="F18" t="n">
-        <v>1342721.959867629</v>
+        <v>3843016.137579727</v>
       </c>
       <c r="G18" t="n">
-        <v>1603389.131736733</v>
+        <v>3892262.117420266</v>
       </c>
       <c r="H18" t="n">
-        <v>1323140.398287697</v>
+        <v>3841207.899598511</v>
       </c>
       <c r="I18" t="n">
-        <v>1319141.513456898</v>
+        <v>3768872.436686625</v>
       </c>
       <c r="J18" t="n">
-        <v>1406918.100568292</v>
+        <v>4077570.687223786</v>
       </c>
       <c r="K18" t="n">
-        <v>1667585.272437397</v>
+        <v>4126816.667064325</v>
       </c>
       <c r="L18" t="n">
-        <v>1387336.538988361</v>
+        <v>4075762.44924257</v>
       </c>
       <c r="M18" t="n">
-        <v>1383337.654157562</v>
+        <v>4003426.986330684</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-9570.47618626144</v>
+        <v>4978843.027613612</v>
       </c>
       <c r="C19" t="n">
-        <v>-50219.17794554649</v>
+        <v>3144635.259830827</v>
       </c>
       <c r="D19" t="n">
-        <v>4540.43270494428</v>
+        <v>4970416.341577848</v>
       </c>
       <c r="E19" t="n">
-        <v>-64961.96690695979</v>
+        <v>5115156.494979862</v>
       </c>
       <c r="F19" t="n">
-        <v>-47704.62219072626</v>
+        <v>4769897.482484652</v>
       </c>
       <c r="G19" t="n">
-        <v>-88353.32395001131</v>
+        <v>2935689.714701867</v>
       </c>
       <c r="H19" t="n">
-        <v>-33593.71329952055</v>
+        <v>4761470.796448888</v>
       </c>
       <c r="I19" t="n">
-        <v>-103096.1129114246</v>
+        <v>4906210.949850901</v>
       </c>
       <c r="J19" t="n">
-        <v>-85838.76819519108</v>
+        <v>4560951.937355691</v>
       </c>
       <c r="K19" t="n">
-        <v>-126487.4699544761</v>
+        <v>2726744.169572905</v>
       </c>
       <c r="L19" t="n">
-        <v>-71727.85930398536</v>
+        <v>4552525.251319926</v>
       </c>
       <c r="M19" t="n">
-        <v>-141230.2589158894</v>
+        <v>4697265.404721939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1882702.79149387</v>
+        <v>1811313.475168233</v>
       </c>
       <c r="C20" t="n">
-        <v>2291334.5734767</v>
+        <v>1963764.757848962</v>
       </c>
       <c r="D20" t="n">
-        <v>1783149.385262958</v>
+        <v>2556709.794697648</v>
       </c>
       <c r="E20" t="n">
-        <v>2293909.148311925</v>
+        <v>2380310.121266352</v>
       </c>
       <c r="F20" t="n">
-        <v>1915342.107711541</v>
+        <v>1623486.042611869</v>
       </c>
       <c r="G20" t="n">
-        <v>2323973.889694371</v>
+        <v>1775937.325292598</v>
       </c>
       <c r="H20" t="n">
-        <v>1815788.701480629</v>
+        <v>2368882.362141283</v>
       </c>
       <c r="I20" t="n">
-        <v>2326548.464529596</v>
+        <v>2192482.688709988</v>
       </c>
       <c r="J20" t="n">
-        <v>1947981.423929213</v>
+        <v>1435658.610055504</v>
       </c>
       <c r="K20" t="n">
-        <v>2356613.205912042</v>
+        <v>1588109.892736233</v>
       </c>
       <c r="L20" t="n">
-        <v>1848428.0176983</v>
+        <v>2181054.929584919</v>
       </c>
       <c r="M20" t="n">
-        <v>2359187.780747267</v>
+        <v>2004655.256153623</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1416290.108746856</v>
+        <v>4057911.14374691</v>
       </c>
       <c r="C21" t="n">
-        <v>1494834.388042801</v>
+        <v>4259118.116915128</v>
       </c>
       <c r="D21" t="n">
-        <v>1394510.290586701</v>
+        <v>4383213.056585094</v>
       </c>
       <c r="E21" t="n">
-        <v>1792885.160668771</v>
+        <v>3933987.432904633</v>
       </c>
       <c r="F21" t="n">
-        <v>1517444.781232927</v>
+        <v>4065138.08796426</v>
       </c>
       <c r="G21" t="n">
-        <v>1595989.060528871</v>
+        <v>4266345.061132479</v>
       </c>
       <c r="H21" t="n">
-        <v>1495664.963072772</v>
+        <v>4390440.000802444</v>
       </c>
       <c r="I21" t="n">
-        <v>1894039.833154841</v>
+        <v>3941214.377121984</v>
       </c>
       <c r="J21" t="n">
-        <v>1618599.453718997</v>
+        <v>4072365.032181611</v>
       </c>
       <c r="K21" t="n">
-        <v>1697143.733014942</v>
+        <v>4273572.005349829</v>
       </c>
       <c r="L21" t="n">
-        <v>1596819.635558842</v>
+        <v>4397666.945019795</v>
       </c>
       <c r="M21" t="n">
-        <v>1995194.505640912</v>
+        <v>3948441.321339334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>437883.1460593593</v>
+        <v>11831912.92451593</v>
       </c>
       <c r="C22" t="n">
-        <v>437626.5387516761</v>
+        <v>10931540.6737072</v>
       </c>
       <c r="D22" t="n">
-        <v>437456.3280337082</v>
+        <v>13292387.48428004</v>
       </c>
       <c r="E22" t="n">
-        <v>437524.2107533566</v>
+        <v>12399416.89947244</v>
       </c>
       <c r="F22" t="n">
-        <v>438086.2643217711</v>
+        <v>12737195.25458026</v>
       </c>
       <c r="G22" t="n">
-        <v>437829.6570140879</v>
+        <v>11836823.00377153</v>
       </c>
       <c r="H22" t="n">
-        <v>437659.4462961199</v>
+        <v>14197669.81434437</v>
       </c>
       <c r="I22" t="n">
-        <v>437727.3290157684</v>
+        <v>13304699.22953676</v>
       </c>
       <c r="J22" t="n">
-        <v>438289.3825841829</v>
+        <v>13642477.58464459</v>
       </c>
       <c r="K22" t="n">
-        <v>438032.7752764997</v>
+        <v>12742105.33383586</v>
       </c>
       <c r="L22" t="n">
-        <v>437862.5645585317</v>
+        <v>15102952.14440869</v>
       </c>
       <c r="M22" t="n">
-        <v>437930.4472781802</v>
+        <v>14209981.55960109</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5559.931897484516</v>
+        <v>10964310.91938719</v>
       </c>
       <c r="C23" t="n">
-        <v>5626.039258245068</v>
+        <v>9632488.396606768</v>
       </c>
       <c r="D23" t="n">
-        <v>5538.777352154278</v>
+        <v>10260589.95211602</v>
       </c>
       <c r="E23" t="n">
-        <v>5579.4612733683</v>
+        <v>10020198.01555773</v>
       </c>
       <c r="F23" t="n">
-        <v>5567.757161263278</v>
+        <v>12272784.2346229</v>
       </c>
       <c r="G23" t="n">
-        <v>5633.86452202383</v>
+        <v>10940961.71184248</v>
       </c>
       <c r="H23" t="n">
-        <v>5546.60261593304</v>
+        <v>11569063.26735174</v>
       </c>
       <c r="I23" t="n">
-        <v>5587.286537147063</v>
+        <v>11328671.33079344</v>
       </c>
       <c r="J23" t="n">
-        <v>5575.582425042041</v>
+        <v>13581257.54985861</v>
       </c>
       <c r="K23" t="n">
-        <v>5641.689785802593</v>
+        <v>12249435.02707819</v>
       </c>
       <c r="L23" t="n">
-        <v>5554.427879711803</v>
+        <v>12877536.58258745</v>
       </c>
       <c r="M23" t="n">
-        <v>5595.111800925825</v>
+        <v>12637144.64602915</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11815643.46464649</v>
+        <v>10921445.40128901</v>
       </c>
       <c r="C24" t="n">
-        <v>12552611.77192067</v>
+        <v>8535320.228055863</v>
       </c>
       <c r="D24" t="n">
-        <v>11048777.32419216</v>
+        <v>10142014.23584312</v>
       </c>
       <c r="E24" t="n">
-        <v>12006419.75311125</v>
+        <v>10935857.38419835</v>
       </c>
       <c r="F24" t="n">
-        <v>12551927.27833181</v>
+        <v>11745841.06373937</v>
       </c>
       <c r="G24" t="n">
-        <v>13288895.58560598</v>
+        <v>9359715.890506221</v>
       </c>
       <c r="H24" t="n">
-        <v>11785061.13787748</v>
+        <v>10966409.89829348</v>
       </c>
       <c r="I24" t="n">
-        <v>12742703.56679656</v>
+        <v>11760253.04664871</v>
       </c>
       <c r="J24" t="n">
-        <v>13288211.09201712</v>
+        <v>12570236.72618973</v>
       </c>
       <c r="K24" t="n">
-        <v>14025179.39929129</v>
+        <v>10184111.55295658</v>
       </c>
       <c r="L24" t="n">
-        <v>12521344.95156279</v>
+        <v>11790805.56074384</v>
       </c>
       <c r="M24" t="n">
-        <v>13478987.38048187</v>
+        <v>12584648.70909907</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2733862.220926397</v>
+        <v>5420541.448043368</v>
       </c>
       <c r="C25" t="n">
-        <v>3316139.153334933</v>
+        <v>4430734.115489157</v>
       </c>
       <c r="D25" t="n">
-        <v>2544467.816740383</v>
+        <v>5062348.727540517</v>
       </c>
       <c r="E25" t="n">
-        <v>3148675.924735966</v>
+        <v>5528114.046205547</v>
       </c>
       <c r="F25" t="n">
-        <v>2992223.866557413</v>
+        <v>5610984.112375128</v>
       </c>
       <c r="G25" t="n">
-        <v>3574500.798965949</v>
+        <v>4621176.779820917</v>
       </c>
       <c r="H25" t="n">
-        <v>2802829.462371398</v>
+        <v>5252791.391872277</v>
       </c>
       <c r="I25" t="n">
-        <v>3407037.570366981</v>
+        <v>5718556.710537307</v>
       </c>
       <c r="J25" t="n">
-        <v>3250585.512188428</v>
+        <v>5801426.776706888</v>
       </c>
       <c r="K25" t="n">
-        <v>3832862.444596964</v>
+        <v>4811619.444152677</v>
       </c>
       <c r="L25" t="n">
-        <v>3061191.108002414</v>
+        <v>5443234.056204038</v>
       </c>
       <c r="M25" t="n">
-        <v>3665399.215997996</v>
+        <v>5908999.374869067</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14840756.67517448</v>
+        <v>11797085.39677308</v>
       </c>
       <c r="C26" t="n">
-        <v>15877108.53148197</v>
+        <v>10249535.88664621</v>
       </c>
       <c r="D26" t="n">
-        <v>14996151.3563786</v>
+        <v>10619032.50852455</v>
       </c>
       <c r="E26" t="n">
-        <v>15899515.51255375</v>
+        <v>10295212.6502608</v>
       </c>
       <c r="F26" t="n">
-        <v>16495154.18772823</v>
+        <v>11586019.58138165</v>
       </c>
       <c r="G26" t="n">
-        <v>17531506.04403572</v>
+        <v>10038470.07125478</v>
       </c>
       <c r="H26" t="n">
-        <v>16650548.86893235</v>
+        <v>10407966.69313312</v>
       </c>
       <c r="I26" t="n">
-        <v>17553913.0251075</v>
+        <v>10084146.83486937</v>
       </c>
       <c r="J26" t="n">
-        <v>18149551.70028198</v>
+        <v>11374953.76599022</v>
       </c>
       <c r="K26" t="n">
-        <v>19185903.55658947</v>
+        <v>9827404.25586335</v>
       </c>
       <c r="L26" t="n">
-        <v>18304946.3814861</v>
+        <v>10196900.87774169</v>
       </c>
       <c r="M26" t="n">
-        <v>19208310.53766125</v>
+        <v>9873081.019477941</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12243617.54066015</v>
+        <v>4922703.32769951</v>
       </c>
       <c r="C27" t="n">
-        <v>13902096.50518255</v>
+        <v>4235660.472340574</v>
       </c>
       <c r="D27" t="n">
-        <v>12843135.00516714</v>
+        <v>5024375.775246233</v>
       </c>
       <c r="E27" t="n">
-        <v>13469067.33922592</v>
+        <v>5131184.688855087</v>
       </c>
       <c r="F27" t="n">
-        <v>12702566.53052544</v>
+        <v>5211210.525671618</v>
       </c>
       <c r="G27" t="n">
-        <v>14361045.49504784</v>
+        <v>4524167.670312682</v>
       </c>
       <c r="H27" t="n">
-        <v>13302083.99503243</v>
+        <v>5312882.97321834</v>
       </c>
       <c r="I27" t="n">
-        <v>13928016.32909121</v>
+        <v>5419691.886827195</v>
       </c>
       <c r="J27" t="n">
-        <v>13161515.52039073</v>
+        <v>5499717.723643726</v>
       </c>
       <c r="K27" t="n">
-        <v>14819994.48491313</v>
+        <v>4812674.86828479</v>
       </c>
       <c r="L27" t="n">
-        <v>13761032.98489771</v>
+        <v>5601390.171190448</v>
       </c>
       <c r="M27" t="n">
-        <v>14386965.3189565</v>
+        <v>5708199.084799303</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>15580539.70126326</v>
+        <v>12088273.88483915</v>
       </c>
       <c r="C28" t="n">
-        <v>17351397.00625135</v>
+        <v>8294577.10712767</v>
       </c>
       <c r="D28" t="n">
-        <v>19121528.42595237</v>
+        <v>10792407.42074202</v>
       </c>
       <c r="E28" t="n">
-        <v>20892460.4001393</v>
+        <v>12620132.59604663</v>
       </c>
       <c r="F28" t="n">
-        <v>22663650.67399716</v>
+        <v>12539800.86698075</v>
       </c>
       <c r="G28" t="n">
-        <v>24434507.97898525</v>
+        <v>8746104.089269269</v>
       </c>
       <c r="H28" t="n">
-        <v>26204639.39868627</v>
+        <v>11243934.40288362</v>
       </c>
       <c r="I28" t="n">
-        <v>27975571.3728732</v>
+        <v>13071659.57818823</v>
       </c>
       <c r="J28" t="n">
-        <v>29746761.64673106</v>
+        <v>12991327.84912235</v>
       </c>
       <c r="K28" t="n">
-        <v>31517618.95171915</v>
+        <v>9197631.071410868</v>
       </c>
       <c r="L28" t="n">
-        <v>33287750.37142017</v>
+        <v>11695461.38502522</v>
       </c>
       <c r="M28" t="n">
-        <v>35058682.3456071</v>
+        <v>13523186.56032983</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17460542.46327535</v>
+        <v>2501481.542280942</v>
       </c>
       <c r="C29" t="n">
-        <v>18395951.07305206</v>
+        <v>2605652.42676742</v>
       </c>
       <c r="D29" t="n">
-        <v>19332184.84993047</v>
+        <v>2709840.75966389</v>
       </c>
       <c r="E29" t="n">
-        <v>20268922.3957646</v>
+        <v>2814125.981198988</v>
       </c>
       <c r="F29" t="n">
-        <v>21203770.74689547</v>
+        <v>2918277.557045768</v>
       </c>
       <c r="G29" t="n">
-        <v>22139179.35667218</v>
+        <v>3022448.441532247</v>
       </c>
       <c r="H29" t="n">
-        <v>23075413.13355059</v>
+        <v>3126636.774428717</v>
       </c>
       <c r="I29" t="n">
-        <v>24012150.67938472</v>
+        <v>3230921.995963815</v>
       </c>
       <c r="J29" t="n">
-        <v>24946999.03051559</v>
+        <v>3335073.571810595</v>
       </c>
       <c r="K29" t="n">
-        <v>25882407.64029229</v>
+        <v>3439244.456297074</v>
       </c>
       <c r="L29" t="n">
-        <v>26818641.41717071</v>
+        <v>3543432.789193544</v>
       </c>
       <c r="M29" t="n">
-        <v>27755378.96300483</v>
+        <v>3647718.010728641</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46155515.34199682</v>
+        <v>847884.3865913191</v>
       </c>
       <c r="C30" t="n">
-        <v>38930191.98818193</v>
+        <v>630660.7148212777</v>
       </c>
       <c r="D30" t="n">
-        <v>42391412.27680302</v>
+        <v>635013.4635526545</v>
       </c>
       <c r="E30" t="n">
-        <v>45853271.13813334</v>
+        <v>717247.914467014</v>
       </c>
       <c r="F30" t="n">
-        <v>48391799.73759955</v>
+        <v>895937.5950956634</v>
       </c>
       <c r="G30" t="n">
-        <v>41166476.38378467</v>
+        <v>678713.923325622</v>
       </c>
       <c r="H30" t="n">
-        <v>44627696.67240576</v>
+        <v>683066.6720569988</v>
       </c>
       <c r="I30" t="n">
-        <v>48089555.53373607</v>
+        <v>765301.1229713584</v>
       </c>
       <c r="J30" t="n">
-        <v>50628084.13320228</v>
+        <v>943990.8036000078</v>
       </c>
       <c r="K30" t="n">
-        <v>43402760.7793874</v>
+        <v>726767.1318299663</v>
       </c>
       <c r="L30" t="n">
-        <v>46863981.06800849</v>
+        <v>731119.8805613432</v>
       </c>
       <c r="M30" t="n">
-        <v>50325839.92933881</v>
+        <v>813354.3314757027</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>41853665.71813196</v>
+        <v>561935.7270404095</v>
       </c>
       <c r="C31" t="n">
-        <v>38925489.11771153</v>
+        <v>529934.4336755443</v>
       </c>
       <c r="D31" t="n">
-        <v>34773742.31100553</v>
+        <v>663412.4756257457</v>
       </c>
       <c r="E31" t="n">
-        <v>40805606.3345189</v>
+        <v>618847.2180449107</v>
       </c>
       <c r="F31" t="n">
-        <v>41674717.23874184</v>
+        <v>551777.5716630098</v>
       </c>
       <c r="G31" t="n">
-        <v>38746540.63832141</v>
+        <v>519776.2782981446</v>
       </c>
       <c r="H31" t="n">
-        <v>34594793.83161541</v>
+        <v>653254.3202483461</v>
       </c>
       <c r="I31" t="n">
-        <v>40626657.85512879</v>
+        <v>608689.0626675111</v>
       </c>
       <c r="J31" t="n">
-        <v>41495768.75935173</v>
+        <v>541619.4162856102</v>
       </c>
       <c r="K31" t="n">
-        <v>38567592.1589313</v>
+        <v>509618.122920745</v>
       </c>
       <c r="L31" t="n">
-        <v>34415845.3522253</v>
+        <v>643096.1648709464</v>
       </c>
       <c r="M31" t="n">
-        <v>40447709.37573867</v>
+        <v>598530.9072901114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>891573.8578935647</v>
+        <v>1905727.453840794</v>
       </c>
       <c r="C32" t="n">
-        <v>873027.7453868233</v>
+        <v>1892968.638973948</v>
       </c>
       <c r="D32" t="n">
-        <v>838294.4179879554</v>
+        <v>1958464.55046453</v>
       </c>
       <c r="E32" t="n">
-        <v>1475729.891552118</v>
+        <v>2032913.65805016</v>
       </c>
       <c r="F32" t="n">
-        <v>1468772.036647432</v>
+        <v>2057424.037466908</v>
       </c>
       <c r="G32" t="n">
-        <v>1450225.924140691</v>
+        <v>2044665.222600062</v>
       </c>
       <c r="H32" t="n">
-        <v>1415492.596741823</v>
+        <v>2110161.134090644</v>
       </c>
       <c r="I32" t="n">
-        <v>2052928.070305985</v>
+        <v>2184610.241676274</v>
       </c>
       <c r="J32" t="n">
-        <v>2045970.2154013</v>
+        <v>2209120.621093021</v>
       </c>
       <c r="K32" t="n">
-        <v>2027424.102894559</v>
+        <v>2196361.806226176</v>
       </c>
       <c r="L32" t="n">
-        <v>1992690.775495691</v>
+        <v>2261857.717716758</v>
       </c>
       <c r="M32" t="n">
-        <v>2630126.249059853</v>
+        <v>2336306.825302388</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4607757.089164403</v>
+        <v>2283104.90070708</v>
       </c>
       <c r="C33" t="n">
-        <v>4770899.780282473</v>
+        <v>2305627.749012537</v>
       </c>
       <c r="D33" t="n">
-        <v>4249351.472492897</v>
+        <v>2328594.649318018</v>
       </c>
       <c r="E33" t="n">
-        <v>4424374.117531927</v>
+        <v>2351344.893596183</v>
       </c>
       <c r="F33" t="n">
-        <v>5055356.721879073</v>
+        <v>2374015.21710167</v>
       </c>
       <c r="G33" t="n">
-        <v>5218499.412997143</v>
+        <v>2396538.065407127</v>
       </c>
       <c r="H33" t="n">
-        <v>4696951.105207567</v>
+        <v>2419504.965712608</v>
       </c>
       <c r="I33" t="n">
-        <v>4871973.750246597</v>
+        <v>2442255.209990772</v>
       </c>
       <c r="J33" t="n">
-        <v>5502956.354593744</v>
+        <v>2464925.53349626</v>
       </c>
       <c r="K33" t="n">
-        <v>5666099.045711813</v>
+        <v>2487448.381801717</v>
       </c>
       <c r="L33" t="n">
-        <v>5144550.737922237</v>
+        <v>2510415.282107198</v>
       </c>
       <c r="M33" t="n">
-        <v>5319573.382961268</v>
+        <v>2533165.526385362</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10724788.69448481</v>
+        <v>2746200.485809949</v>
       </c>
       <c r="C34" t="n">
-        <v>11368428.39913603</v>
+        <v>2418239.432186282</v>
       </c>
       <c r="D34" t="n">
-        <v>10976262.6741102</v>
+        <v>2815787.480982632</v>
       </c>
       <c r="E34" t="n">
-        <v>11134351.68734068</v>
+        <v>2844729.161295728</v>
       </c>
       <c r="F34" t="n">
-        <v>11725982.33878071</v>
+        <v>2867800.211195624</v>
       </c>
       <c r="G34" t="n">
-        <v>12369622.04343193</v>
+        <v>2539839.157571957</v>
       </c>
       <c r="H34" t="n">
-        <v>11977456.3184061</v>
+        <v>2937387.206368308</v>
       </c>
       <c r="I34" t="n">
-        <v>12135545.33163658</v>
+        <v>2966328.886681403</v>
       </c>
       <c r="J34" t="n">
-        <v>12727175.98307661</v>
+        <v>2989399.9365813</v>
       </c>
       <c r="K34" t="n">
-        <v>13370815.68772783</v>
+        <v>2661438.882957633</v>
       </c>
       <c r="L34" t="n">
-        <v>12978649.962702</v>
+        <v>3058986.931753983</v>
       </c>
       <c r="M34" t="n">
-        <v>13136738.97593248</v>
+        <v>3087928.612067079</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4645755.959505562</v>
+        <v>1609480.669327109</v>
       </c>
       <c r="C35" t="n">
-        <v>4732366.745765441</v>
+        <v>1616391.870889527</v>
       </c>
       <c r="D35" t="n">
-        <v>4819034.242982617</v>
+        <v>1623361.342905325</v>
       </c>
       <c r="E35" t="n">
-        <v>4906398.18902835</v>
+        <v>1630424.756427873</v>
       </c>
       <c r="F35" t="n">
-        <v>4992878.923158955</v>
+        <v>1637008.839157839</v>
       </c>
       <c r="G35" t="n">
-        <v>5079489.709418834</v>
+        <v>1643920.040720257</v>
       </c>
       <c r="H35" t="n">
-        <v>5166157.20663601</v>
+        <v>1650889.512736055</v>
       </c>
       <c r="I35" t="n">
-        <v>5253521.152681743</v>
+        <v>1657952.926258603</v>
       </c>
       <c r="J35" t="n">
-        <v>5340001.886812348</v>
+        <v>1664537.008988569</v>
       </c>
       <c r="K35" t="n">
-        <v>5426612.673072227</v>
+        <v>1671448.210550987</v>
       </c>
       <c r="L35" t="n">
-        <v>5513280.170289403</v>
+        <v>1678417.682566785</v>
       </c>
       <c r="M35" t="n">
-        <v>5600644.116335136</v>
+        <v>1685481.096089333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2748745.629481019</v>
+        <v>1433044.69900404</v>
       </c>
       <c r="C36" t="n">
-        <v>3066120.107691971</v>
+        <v>1441137.282479664</v>
       </c>
       <c r="D36" t="n">
-        <v>3000163.976657381</v>
+        <v>1669313.546583639</v>
       </c>
       <c r="E36" t="n">
-        <v>2905950.449159246</v>
+        <v>1641685.627358447</v>
       </c>
       <c r="F36" t="n">
-        <v>2715435.70424661</v>
+        <v>1496778.433863996</v>
       </c>
       <c r="G36" t="n">
-        <v>3032810.182457562</v>
+        <v>1504871.01733962</v>
       </c>
       <c r="H36" t="n">
-        <v>2966854.051422972</v>
+        <v>1733047.281443596</v>
       </c>
       <c r="I36" t="n">
-        <v>2872640.523924837</v>
+        <v>1705419.362218403</v>
       </c>
       <c r="J36" t="n">
-        <v>2682125.779012201</v>
+        <v>1560512.168723953</v>
       </c>
       <c r="K36" t="n">
-        <v>2999500.257223153</v>
+        <v>1568604.752199576</v>
       </c>
       <c r="L36" t="n">
-        <v>2933544.126188563</v>
+        <v>1796781.016303552</v>
       </c>
       <c r="M36" t="n">
-        <v>2839330.598690428</v>
+        <v>1769153.09707836</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5578969.705418015</v>
+        <v>3666963.877072364</v>
       </c>
       <c r="C37" t="n">
-        <v>5026204.566172669</v>
+        <v>3021820.480179882</v>
       </c>
       <c r="D37" t="n">
-        <v>3453167.257540202</v>
+        <v>3535728.252211895</v>
       </c>
       <c r="E37" t="n">
-        <v>5119300.135223484</v>
+        <v>4073452.791609834</v>
       </c>
       <c r="F37" t="n">
-        <v>5457667.266023589</v>
+        <v>3591004.927352073</v>
       </c>
       <c r="G37" t="n">
-        <v>4904902.126778243</v>
+        <v>2945861.530459591</v>
       </c>
       <c r="H37" t="n">
-        <v>3331864.818145776</v>
+        <v>3459769.302491604</v>
       </c>
       <c r="I37" t="n">
-        <v>4997997.695829058</v>
+        <v>3997493.841889543</v>
       </c>
       <c r="J37" t="n">
-        <v>5336364.826629164</v>
+        <v>3515045.977631781</v>
       </c>
       <c r="K37" t="n">
-        <v>4783599.687383818</v>
+        <v>2869902.580739299</v>
       </c>
       <c r="L37" t="n">
-        <v>3210562.378751351</v>
+        <v>3383810.352771312</v>
       </c>
       <c r="M37" t="n">
-        <v>4876695.256434632</v>
+        <v>3921534.892169251</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2872209.959084096</v>
+        <v>3697461.222742595</v>
       </c>
       <c r="C38" t="n">
-        <v>2074549.627587772</v>
+        <v>3687686.195418358</v>
       </c>
       <c r="D38" t="n">
-        <v>2345853.21585207</v>
+        <v>3990829.328946216</v>
       </c>
       <c r="E38" t="n">
-        <v>2922461.862960723</v>
+        <v>3832335.518061538</v>
       </c>
       <c r="F38" t="n">
-        <v>2732521.606420173</v>
+        <v>3876573.826114172</v>
       </c>
       <c r="G38" t="n">
-        <v>1934861.274923849</v>
+        <v>3866798.798789935</v>
       </c>
       <c r="H38" t="n">
-        <v>2206164.863188147</v>
+        <v>4169941.932317793</v>
       </c>
       <c r="I38" t="n">
-        <v>2782773.5102968</v>
+        <v>4011448.121433116</v>
       </c>
       <c r="J38" t="n">
-        <v>2592833.25375625</v>
+        <v>4055686.429485749</v>
       </c>
       <c r="K38" t="n">
-        <v>1795172.922259926</v>
+        <v>4045911.402161513</v>
       </c>
       <c r="L38" t="n">
-        <v>2066476.510524224</v>
+        <v>4349054.53568937</v>
       </c>
       <c r="M38" t="n">
-        <v>2643085.157632877</v>
+        <v>4190560.724804692</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3847194.83553904</v>
+        <v>5214050.325974793</v>
       </c>
       <c r="C39" t="n">
-        <v>3998031.050802777</v>
+        <v>5334475.396417736</v>
       </c>
       <c r="D39" t="n">
-        <v>4140203.939664775</v>
+        <v>5843015.229644637</v>
       </c>
       <c r="E39" t="n">
-        <v>4369335.310719927</v>
+        <v>5602026.145597903</v>
       </c>
       <c r="F39" t="n">
-        <v>3921142.768363663</v>
+        <v>5650673.013740023</v>
       </c>
       <c r="G39" t="n">
-        <v>4071978.9836274</v>
+        <v>5771098.084182966</v>
       </c>
       <c r="H39" t="n">
-        <v>4214151.872489397</v>
+        <v>6279637.917409866</v>
       </c>
       <c r="I39" t="n">
-        <v>4443283.24354455</v>
+        <v>6038648.833363133</v>
       </c>
       <c r="J39" t="n">
-        <v>3995090.701188286</v>
+        <v>6087295.701505252</v>
       </c>
       <c r="K39" t="n">
-        <v>4145926.916452023</v>
+        <v>6207720.771948195</v>
       </c>
       <c r="L39" t="n">
-        <v>4288099.805314021</v>
+        <v>6716260.605175096</v>
       </c>
       <c r="M39" t="n">
-        <v>4517231.176369173</v>
+        <v>6475271.521128362</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>11742857.8285652</v>
+        <v>5302492.461492147</v>
       </c>
       <c r="C40" t="n">
-        <v>12037145.51645895</v>
+        <v>4975711.662088548</v>
       </c>
       <c r="D40" t="n">
-        <v>11248123.7279398</v>
+        <v>5291673.188267522</v>
       </c>
       <c r="E40" t="n">
-        <v>13639957.2574422</v>
+        <v>5229405.674596677</v>
       </c>
       <c r="F40" t="n">
-        <v>12740153.69217934</v>
+        <v>5542979.108055808</v>
       </c>
       <c r="G40" t="n">
-        <v>13034441.38007309</v>
+        <v>5216198.308652208</v>
       </c>
       <c r="H40" t="n">
-        <v>12245419.59155394</v>
+        <v>5532159.834831182</v>
       </c>
       <c r="I40" t="n">
-        <v>14637253.12105634</v>
+        <v>5469892.321160337</v>
       </c>
       <c r="J40" t="n">
-        <v>13737449.55579348</v>
+        <v>5783465.754619468</v>
       </c>
       <c r="K40" t="n">
-        <v>14031737.24368723</v>
+        <v>5456684.955215869</v>
       </c>
       <c r="L40" t="n">
-        <v>13242715.45516808</v>
+        <v>5772646.481394842</v>
       </c>
       <c r="M40" t="n">
-        <v>15634548.98467048</v>
+        <v>5710378.967723997</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>6275474.033588671</v>
+        <v>3234063.464826519</v>
       </c>
       <c r="C41" t="n">
-        <v>8432283.343384311</v>
+        <v>2892916.453315708</v>
       </c>
       <c r="D41" t="n">
-        <v>6453180.222045321</v>
+        <v>2923715.948329266</v>
       </c>
       <c r="E41" t="n">
-        <v>6461385.332365694</v>
+        <v>3025768.645967428</v>
       </c>
       <c r="F41" t="n">
-        <v>6207238.105944783</v>
+        <v>3371883.91325908</v>
       </c>
       <c r="G41" t="n">
-        <v>8364047.415740422</v>
+        <v>3030736.901748269</v>
       </c>
       <c r="H41" t="n">
-        <v>6384944.294401433</v>
+        <v>3061536.396761827</v>
       </c>
       <c r="I41" t="n">
-        <v>6393149.404721806</v>
+        <v>3163589.094399989</v>
       </c>
       <c r="J41" t="n">
-        <v>6139002.178300896</v>
+        <v>3509704.361691641</v>
       </c>
       <c r="K41" t="n">
-        <v>8295811.488096534</v>
+        <v>3168557.35018083</v>
       </c>
       <c r="L41" t="n">
-        <v>6316708.366757546</v>
+        <v>3199356.845194388</v>
       </c>
       <c r="M41" t="n">
-        <v>6324913.477077918</v>
+        <v>3301409.54283255</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10797889.08201664</v>
+        <v>3884425.427934238</v>
       </c>
       <c r="C42" t="n">
-        <v>11283458.26933975</v>
+        <v>3787088.293788699</v>
       </c>
       <c r="D42" t="n">
-        <v>8850279.764653781</v>
+        <v>4203523.048893617</v>
       </c>
       <c r="E42" t="n">
-        <v>10521222.34379715</v>
+        <v>4317447.160581155</v>
       </c>
       <c r="F42" t="n">
-        <v>11688772.02167453</v>
+        <v>4057663.741643964</v>
       </c>
       <c r="G42" t="n">
-        <v>12174341.20899764</v>
+        <v>3960326.607498426</v>
       </c>
       <c r="H42" t="n">
-        <v>9741162.704311671</v>
+        <v>4376761.362603344</v>
       </c>
       <c r="I42" t="n">
-        <v>11412105.28345503</v>
+        <v>4490685.474290882</v>
       </c>
       <c r="J42" t="n">
-        <v>12579654.96133242</v>
+        <v>4230902.055353693</v>
       </c>
       <c r="K42" t="n">
-        <v>13065224.14865553</v>
+        <v>4133564.921208154</v>
       </c>
       <c r="L42" t="n">
-        <v>10632045.64396956</v>
+        <v>4549999.676313072</v>
       </c>
       <c r="M42" t="n">
-        <v>12302988.22311292</v>
+        <v>4663923.788000611</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5373941.531537032</v>
+        <v>3196941.437358527</v>
       </c>
       <c r="C43" t="n">
-        <v>5405422.168361962</v>
+        <v>2639233.190958819</v>
       </c>
       <c r="D43" t="n">
-        <v>4264785.583790677</v>
+        <v>2718159.407427006</v>
       </c>
       <c r="E43" t="n">
-        <v>4884582.290282108</v>
+        <v>3128371.493391981</v>
       </c>
       <c r="F43" t="n">
-        <v>5356878.610262049</v>
+        <v>3078423.753205786</v>
       </c>
       <c r="G43" t="n">
-        <v>5388359.247086979</v>
+        <v>2520715.506806078</v>
       </c>
       <c r="H43" t="n">
-        <v>4247722.662515694</v>
+        <v>2599641.723274265</v>
       </c>
       <c r="I43" t="n">
-        <v>4867519.369007125</v>
+        <v>3009853.80923924</v>
       </c>
       <c r="J43" t="n">
-        <v>5339815.688987067</v>
+        <v>2959906.069053045</v>
       </c>
       <c r="K43" t="n">
-        <v>5371296.325811997</v>
+        <v>2402197.822653337</v>
       </c>
       <c r="L43" t="n">
-        <v>4230659.741240712</v>
+        <v>2481124.039121524</v>
       </c>
       <c r="M43" t="n">
-        <v>4850456.447732143</v>
+        <v>2891336.125086499</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>14006088.20227473</v>
+        <v>5541183.738203758</v>
       </c>
       <c r="C44" t="n">
-        <v>15589055.25941027</v>
+        <v>5389899.423035403</v>
       </c>
       <c r="D44" t="n">
-        <v>14111602.10069269</v>
+        <v>5893247.357491719</v>
       </c>
       <c r="E44" t="n">
-        <v>14885474.29045935</v>
+        <v>5791893.319463178</v>
       </c>
       <c r="F44" t="n">
-        <v>14989309.41391293</v>
+        <v>5763634.125317814</v>
       </c>
       <c r="G44" t="n">
-        <v>16572276.47104846</v>
+        <v>5612349.810149458</v>
       </c>
       <c r="H44" t="n">
-        <v>15094823.31233088</v>
+        <v>6115697.744605774</v>
       </c>
       <c r="I44" t="n">
-        <v>15868695.50209755</v>
+        <v>6014343.706577233</v>
       </c>
       <c r="J44" t="n">
-        <v>15972530.62555112</v>
+        <v>5986084.512431869</v>
       </c>
       <c r="K44" t="n">
-        <v>17555497.68268666</v>
+        <v>5834800.197263514</v>
       </c>
       <c r="L44" t="n">
-        <v>16078044.52396908</v>
+        <v>6338148.13171983</v>
       </c>
       <c r="M44" t="n">
-        <v>16851916.71373574</v>
+        <v>6236794.093691288</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5480491.948654555</v>
+        <v>3416267.430850058</v>
       </c>
       <c r="C45" t="n">
-        <v>5501527.620672271</v>
+        <v>3243633.116308545</v>
       </c>
       <c r="D45" t="n">
-        <v>4821601.679704824</v>
+        <v>3072983.855307155</v>
       </c>
       <c r="E45" t="n">
-        <v>5505155.179092576</v>
+        <v>3484697.531823577</v>
       </c>
       <c r="F45" t="n">
-        <v>5708180.325758785</v>
+        <v>3642375.287669846</v>
       </c>
       <c r="G45" t="n">
-        <v>5729215.997776501</v>
+        <v>3469740.973128333</v>
       </c>
       <c r="H45" t="n">
-        <v>5049290.056809054</v>
+        <v>3299091.712126943</v>
       </c>
       <c r="I45" t="n">
-        <v>5732843.556196806</v>
+        <v>3710805.388643365</v>
       </c>
       <c r="J45" t="n">
-        <v>5935868.702863015</v>
+        <v>3868483.144489634</v>
       </c>
       <c r="K45" t="n">
-        <v>5956904.374880731</v>
+        <v>3695848.829948121</v>
       </c>
       <c r="L45" t="n">
-        <v>5276978.433913284</v>
+        <v>3525199.568946731</v>
       </c>
       <c r="M45" t="n">
-        <v>5960531.933301036</v>
+        <v>3936913.245463153</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>13622439.60918297</v>
+        <v>1917834.902822308</v>
       </c>
       <c r="C46" t="n">
-        <v>13621460.96061353</v>
+        <v>1916311.085264584</v>
       </c>
       <c r="D46" t="n">
-        <v>10927579.29978191</v>
+        <v>2098844.276549805</v>
       </c>
       <c r="E46" t="n">
-        <v>12486486.34124625</v>
+        <v>1928442.10284462</v>
       </c>
       <c r="F46" t="n">
-        <v>14395337.9180984</v>
+        <v>1851256.110987666</v>
       </c>
       <c r="G46" t="n">
-        <v>14394359.26952897</v>
+        <v>1849732.293429942</v>
       </c>
       <c r="H46" t="n">
-        <v>11700477.60869735</v>
+        <v>2032265.484715163</v>
       </c>
       <c r="I46" t="n">
-        <v>13259384.65016169</v>
+        <v>1861863.311009978</v>
       </c>
       <c r="J46" t="n">
-        <v>15168236.22701384</v>
+        <v>1784677.319153024</v>
       </c>
       <c r="K46" t="n">
-        <v>15167257.5784444</v>
+        <v>1783153.5015953</v>
       </c>
       <c r="L46" t="n">
-        <v>12473375.91761278</v>
+        <v>1965686.692880521</v>
       </c>
       <c r="M46" t="n">
-        <v>14032282.95907712</v>
+        <v>1795284.519175336</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2289437.575012749</v>
+        <v>1678122.965004074</v>
       </c>
       <c r="C47" t="n">
-        <v>2379542.817267698</v>
+        <v>1688368.846593145</v>
       </c>
       <c r="D47" t="n">
-        <v>2469655.36011486</v>
+        <v>1698535.920771438</v>
       </c>
       <c r="E47" t="n">
-        <v>2559788.291272003</v>
+        <v>1708871.262160334</v>
       </c>
       <c r="F47" t="n">
-        <v>2650019.146986673</v>
+        <v>1719167.896138256</v>
       </c>
       <c r="G47" t="n">
-        <v>2740124.389241622</v>
+        <v>1729413.777727327</v>
       </c>
       <c r="H47" t="n">
-        <v>2830236.932088783</v>
+        <v>1739580.85190562</v>
       </c>
       <c r="I47" t="n">
-        <v>2920369.863245927</v>
+        <v>1749916.193294516</v>
       </c>
       <c r="J47" t="n">
-        <v>3010600.718960596</v>
+        <v>1760212.827272438</v>
       </c>
       <c r="K47" t="n">
-        <v>3100705.961215545</v>
+        <v>1770458.708861509</v>
       </c>
       <c r="L47" t="n">
-        <v>3190818.504062707</v>
+        <v>1780625.783039802</v>
       </c>
       <c r="M47" t="n">
-        <v>3280951.43521985</v>
+        <v>1790961.124428698</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>671602.3024025991</v>
+        <v>5421873.979573688</v>
       </c>
       <c r="C48" t="n">
-        <v>849765.8117763828</v>
+        <v>5316284.683211206</v>
       </c>
       <c r="D48" t="n">
-        <v>632670.2280156645</v>
+        <v>5438402.404857365</v>
       </c>
       <c r="E48" t="n">
-        <v>637091.032661453</v>
+        <v>5597760.332710899</v>
       </c>
       <c r="F48" t="n">
-        <v>720195.8170663811</v>
+        <v>5831203.153690169</v>
       </c>
       <c r="G48" t="n">
-        <v>898359.3264401648</v>
+        <v>5725613.857327687</v>
       </c>
       <c r="H48" t="n">
-        <v>681263.7426794465</v>
+        <v>5847731.578973847</v>
       </c>
       <c r="I48" t="n">
-        <v>685684.547325235</v>
+        <v>6007089.506827381</v>
       </c>
       <c r="J48" t="n">
-        <v>768789.3317301631</v>
+        <v>6240532.32780665</v>
       </c>
       <c r="K48" t="n">
-        <v>946952.8411039468</v>
+        <v>6134943.031444168</v>
       </c>
       <c r="L48" t="n">
-        <v>729857.2573432284</v>
+        <v>6257060.753090328</v>
       </c>
       <c r="M48" t="n">
-        <v>734278.0619890169</v>
+        <v>6416418.680943862</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>699057.3972934939</v>
+        <v>607792.1762703867</v>
       </c>
       <c r="C49" t="n">
-        <v>632243.7254341914</v>
+        <v>563002.811957399</v>
       </c>
       <c r="D49" t="n">
-        <v>658287.113192688</v>
+        <v>584536.1500829947</v>
       </c>
       <c r="E49" t="n">
-        <v>729976.4477653399</v>
+        <v>620836.2586270255</v>
       </c>
       <c r="F49" t="n">
-        <v>705275.3094702943</v>
+        <v>608129.1650592778</v>
       </c>
       <c r="G49" t="n">
-        <v>638461.6376109918</v>
+        <v>563339.8007462901</v>
       </c>
       <c r="H49" t="n">
-        <v>664505.0253694884</v>
+        <v>584873.1388718858</v>
       </c>
       <c r="I49" t="n">
-        <v>736194.3599421403</v>
+        <v>621173.2474159166</v>
       </c>
       <c r="J49" t="n">
-        <v>711493.2216470947</v>
+        <v>608466.1538481689</v>
       </c>
       <c r="K49" t="n">
-        <v>644679.5497877923</v>
+        <v>563676.7895351812</v>
       </c>
       <c r="L49" t="n">
-        <v>670722.9375462888</v>
+        <v>585210.127660777</v>
       </c>
       <c r="M49" t="n">
-        <v>742412.2721189407</v>
+        <v>621510.2362048078</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1745707.405650528</v>
+        <v>2856046.537261366</v>
       </c>
       <c r="C50" t="n">
-        <v>1760849.315967223</v>
+        <v>2952410.444210431</v>
       </c>
       <c r="D50" t="n">
-        <v>1758861.770524643</v>
+        <v>3049086.125929289</v>
       </c>
       <c r="E50" t="n">
-        <v>1794795.946374189</v>
+        <v>3145570.36418855</v>
       </c>
       <c r="F50" t="n">
-        <v>1859808.562150936</v>
+        <v>3242236.542347807</v>
       </c>
       <c r="G50" t="n">
-        <v>1874950.47246763</v>
+        <v>3338600.449296871</v>
       </c>
       <c r="H50" t="n">
-        <v>1872962.92702505</v>
+        <v>3435276.131015729</v>
       </c>
       <c r="I50" t="n">
-        <v>1908897.102874597</v>
+        <v>3531760.369274991</v>
       </c>
       <c r="J50" t="n">
-        <v>1973909.718651343</v>
+        <v>3628426.547434248</v>
       </c>
       <c r="K50" t="n">
-        <v>1989051.628968038</v>
+        <v>3724790.454383312</v>
       </c>
       <c r="L50" t="n">
-        <v>1987064.083525458</v>
+        <v>3821466.13610217</v>
       </c>
       <c r="M50" t="n">
-        <v>2022998.259375004</v>
+        <v>3917950.374361431</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2210172.419899719</v>
+        <v>2939471.217875142</v>
       </c>
       <c r="C51" t="n">
-        <v>2230663.995031583</v>
+        <v>3026356.741139029</v>
       </c>
       <c r="D51" t="n">
-        <v>2251033.332211455</v>
+        <v>3116467.490694718</v>
       </c>
       <c r="E51" t="n">
-        <v>2271749.920645885</v>
+        <v>3205062.249928181</v>
       </c>
       <c r="F51" t="n">
-        <v>2292289.87364316</v>
+        <v>3295816.146652229</v>
       </c>
       <c r="G51" t="n">
-        <v>2312781.448775024</v>
+        <v>3382701.669916117</v>
       </c>
       <c r="H51" t="n">
-        <v>2333150.785954896</v>
+        <v>3472812.419471806</v>
       </c>
       <c r="I51" t="n">
-        <v>2353867.374389326</v>
+        <v>3561407.178705269</v>
       </c>
       <c r="J51" t="n">
-        <v>2374407.327386601</v>
+        <v>3652161.075429317</v>
       </c>
       <c r="K51" t="n">
-        <v>2394898.902518465</v>
+        <v>3739046.598693204</v>
       </c>
       <c r="L51" t="n">
-        <v>2415268.239698337</v>
+        <v>3829157.348248893</v>
       </c>
       <c r="M51" t="n">
-        <v>2435984.828132767</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2929726.518774521</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2981828.077841917</v>
-      </c>
-      <c r="D52" t="n">
-        <v>2648920.011778628</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3074914.619273056</v>
-      </c>
-      <c r="F52" t="n">
-        <v>3115191.218299257</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3167292.777366653</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2834384.711303364</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3260379.318797792</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3300655.917823993</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3352757.476891389</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3019849.4108281</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3445844.018322528</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1195018.252172363</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1194919.877047651</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1195127.403569664</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1195371.541849358</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1195640.371209504</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1195541.996084793</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1195749.522606805</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1195993.660886499</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1196262.490246645</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1196164.115121934</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1196371.641643946</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1196615.77992364</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1489547.965493604</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1319396.675857191</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1400875.053162378</v>
-      </c>
-      <c r="E54" t="n">
-        <v>1546562.18435917</v>
-      </c>
-      <c r="F54" t="n">
-        <v>1530140.882356376</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1359989.592719963</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1441467.97002515</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1587155.101221942</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1570733.799219148</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1400582.509582735</v>
-      </c>
-      <c r="L54" t="n">
-        <v>1482060.886887921</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1627748.018084714</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3770113.772646354</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3255657.999782057</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2579082.580447007</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3100033.344685686</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3547249.432309031</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3032793.659444734</v>
-      </c>
-      <c r="H55" t="n">
-        <v>2356218.240109684</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2877169.004348363</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3324385.091971708</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2809929.31910741</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2133353.899772361</v>
-      </c>
-      <c r="M55" t="n">
-        <v>2654304.66401104</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3786205.244454552</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3826550.847233604</v>
-      </c>
-      <c r="D56" t="n">
-        <v>3797517.481513</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4112123.257388934</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3949723.487612697</v>
-      </c>
-      <c r="G56" t="n">
-        <v>3990069.090391749</v>
-      </c>
-      <c r="H56" t="n">
-        <v>3961035.724671145</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4275641.500547078</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4113241.730770842</v>
-      </c>
-      <c r="K56" t="n">
-        <v>4153587.333549893</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4124553.967829289</v>
-      </c>
-      <c r="M56" t="n">
-        <v>4439159.743705224</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>5278302.562776168</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5347488.505234631</v>
-      </c>
-      <c r="D57" t="n">
-        <v>5597480.282048303</v>
-      </c>
-      <c r="E57" t="n">
-        <v>6018145.13536022</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5797802.588675757</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5866988.53113422</v>
-      </c>
-      <c r="H57" t="n">
-        <v>6116980.307947892</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6537645.16125981</v>
-      </c>
-      <c r="J57" t="n">
-        <v>6317302.614575346</v>
-      </c>
-      <c r="K57" t="n">
-        <v>6386488.557033809</v>
-      </c>
-      <c r="L57" t="n">
-        <v>6636480.333847481</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7057145.187159399</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>5290629.76789466</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5462848.80579751</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5164716.875285613</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5444902.362143783</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5589314.672551819</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5761533.710454669</v>
-      </c>
-      <c r="H58" t="n">
-        <v>5463401.779942772</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5743587.266800942</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5887999.577208978</v>
-      </c>
-      <c r="K58" t="n">
-        <v>6060218.615111828</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5762086.684599931</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6042272.171458101</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3008067.836060127</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3321367.34544787</v>
-      </c>
-      <c r="D59" t="n">
-        <v>2978219.185568511</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3010510.272324984</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3179295.707151299</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3492595.216539043</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3149447.056659683</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3181738.143416157</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3350523.578242471</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3663823.087630215</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3320674.927750855</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3352966.014507329</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4273654.164402569</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3977849.118389117</v>
-      </c>
-      <c r="D60" t="n">
-        <v>4054781.256514356</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4225209.91123351</v>
-      </c>
-      <c r="F60" t="n">
-        <v>4303411.222074721</v>
-      </c>
-      <c r="G60" t="n">
-        <v>4007606.176061269</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4084538.314186508</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4254966.968905662</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4333168.279746873</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4037363.233733422</v>
-      </c>
-      <c r="L60" t="n">
-        <v>4114295.37185866</v>
-      </c>
-      <c r="M60" t="n">
-        <v>4284724.026577814</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>3498815.035528243</v>
-      </c>
-      <c r="C61" t="n">
-        <v>3403169.282973332</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2960660.489487159</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3060563.904909965</v>
-      </c>
-      <c r="F61" t="n">
-        <v>3523195.149424179</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3427549.396869268</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2985040.603383095</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3084944.018805901</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3547575.263320115</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3451929.510765204</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3009420.71727903</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3109324.132701837</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5388162.363288546</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5288168.70227087</v>
-      </c>
-      <c r="D62" t="n">
-        <v>5248449.342893863</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5466788.694508811</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5462218.612808382</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5362224.951790706</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5322505.592413699</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5540844.944028648</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5536274.862328218</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5436281.201310542</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5396561.841933535</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5614901.193548484</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3353680.483943174</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3430589.622782565</v>
-      </c>
-      <c r="D63" t="n">
-        <v>3239380.488217512</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3042144.644530556</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3489640.164025346</v>
-      </c>
-      <c r="G63" t="n">
-        <v>3566549.302864737</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3375340.168299684</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3178104.324612728</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3625599.844107518</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3702508.982946909</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3511299.848381856</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3314064.0046949</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2141543.565094657</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2058609.710197512</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2042930.157271949</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2251753.747937134</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2153310.478380233</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2070376.623483088</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2054697.070557525</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2263520.66122271</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2165077.391665808</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2082143.536768663</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2066463.9838431</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2275287.574508286</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1685248.564187767</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1696933.346709131</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1708568.920969993</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1720125.635904311</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1731852.593567961</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1743537.376089325</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1755172.950350187</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1766729.665284505</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1778456.622948155</v>
-      </c>
-      <c r="K65" t="n">
-        <v>1790141.405469519</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1801776.979730381</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1813333.694664699</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4908066.268332551</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5080461.274807185</v>
-      </c>
-      <c r="D66" t="n">
-        <v>4994911.162663867</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5147253.966810836</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5178835.650967903</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5351230.657442536</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5265680.545299218</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5418023.349446188</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5449605.033603254</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5622000.040077887</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5536449.927934569</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5688792.732081539</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>698810.7083118947</v>
-      </c>
-      <c r="C67" t="n">
-        <v>677977.6757404045</v>
-      </c>
-      <c r="D67" t="n">
-        <v>630471.5289441193</v>
-      </c>
-      <c r="E67" t="n">
-        <v>646393.0938081389</v>
-      </c>
-      <c r="F67" t="n">
-        <v>699177.1174779974</v>
-      </c>
-      <c r="G67" t="n">
-        <v>678344.0849065073</v>
-      </c>
-      <c r="H67" t="n">
-        <v>630837.9381102221</v>
-      </c>
-      <c r="I67" t="n">
-        <v>646759.5029742416</v>
-      </c>
-      <c r="J67" t="n">
-        <v>699543.5266441002</v>
-      </c>
-      <c r="K67" t="n">
-        <v>678710.49407261</v>
-      </c>
-      <c r="L67" t="n">
-        <v>631204.3472763249</v>
-      </c>
-      <c r="M67" t="n">
-        <v>647125.9121403444</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3071688.924053244</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3330267.17101274</v>
-      </c>
-      <c r="D68" t="n">
-        <v>2871345.023129601</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3528006.540901086</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3465010.246314451</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3723588.493273947</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3264666.345390807</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3921327.863162293</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3858331.568575657</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4116909.815535154</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3657987.667652014</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4314649.1854235</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3070467.447374586</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3186290.767361737</v>
-      </c>
-      <c r="D69" t="n">
-        <v>3301872.286560599</v>
-      </c>
-      <c r="E69" t="n">
-        <v>3417667.488844399</v>
-      </c>
-      <c r="F69" t="n">
-        <v>3533391.522537632</v>
-      </c>
-      <c r="G69" t="n">
-        <v>3649214.842524783</v>
-      </c>
-      <c r="H69" t="n">
-        <v>3764796.361723645</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3880591.564007445</v>
-      </c>
-      <c r="J69" t="n">
-        <v>3996315.597700678</v>
-      </c>
-      <c r="K69" t="n">
-        <v>4112138.917687829</v>
-      </c>
-      <c r="L69" t="n">
-        <v>4227720.436886691</v>
-      </c>
-      <c r="M69" t="n">
-        <v>4343515.639170491</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7470601.581076005</v>
-      </c>
-      <c r="C70" t="n">
-        <v>7464234.122057217</v>
-      </c>
-      <c r="D70" t="n">
-        <v>7472451.053392875</v>
-      </c>
-      <c r="E70" t="n">
-        <v>7473493.748383882</v>
-      </c>
-      <c r="F70" t="n">
-        <v>7473587.643731927</v>
-      </c>
-      <c r="G70" t="n">
-        <v>7467220.184713139</v>
-      </c>
-      <c r="H70" t="n">
-        <v>7475437.116048797</v>
-      </c>
-      <c r="I70" t="n">
-        <v>7476479.811039804</v>
-      </c>
-      <c r="J70" t="n">
-        <v>7476573.70638785</v>
-      </c>
-      <c r="K70" t="n">
-        <v>7470206.247369061</v>
-      </c>
-      <c r="L70" t="n">
-        <v>7478423.178704719</v>
-      </c>
-      <c r="M70" t="n">
-        <v>7479465.873695727</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>21335444.00938546</v>
-      </c>
-      <c r="C71" t="n">
-        <v>22855616.83978649</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20525450.63149025</v>
-      </c>
-      <c r="E71" t="n">
-        <v>22133054.59131129</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25136631.22598601</v>
-      </c>
-      <c r="G71" t="n">
-        <v>26656804.05638704</v>
-      </c>
-      <c r="H71" t="n">
-        <v>24326637.84809081</v>
-      </c>
-      <c r="I71" t="n">
-        <v>25934241.80791184</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28937818.44258656</v>
-      </c>
-      <c r="K71" t="n">
-        <v>30457991.27298759</v>
-      </c>
-      <c r="L71" t="n">
-        <v>28127825.06469136</v>
-      </c>
-      <c r="M71" t="n">
-        <v>29735429.0245124</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>5048326.000960836</v>
-      </c>
-      <c r="C72" t="n">
-        <v>3370503.654796373</v>
-      </c>
-      <c r="D72" t="n">
-        <v>5805828.718557214</v>
-      </c>
-      <c r="E72" t="n">
-        <v>3202393.918794669</v>
-      </c>
-      <c r="F72" t="n">
-        <v>5665054.026603265</v>
-      </c>
-      <c r="G72" t="n">
-        <v>3987231.680438802</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6422556.744199643</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3819121.944437098</v>
-      </c>
-      <c r="J72" t="n">
-        <v>6281782.052245693</v>
-      </c>
-      <c r="K72" t="n">
-        <v>4603959.70608123</v>
-      </c>
-      <c r="L72" t="n">
-        <v>7039284.769842071</v>
-      </c>
-      <c r="M72" t="n">
-        <v>4435849.970079526</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9315446.440386003</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9459915.162526848</v>
-      </c>
-      <c r="D73" t="n">
-        <v>9811594.454760734</v>
-      </c>
-      <c r="E73" t="n">
-        <v>10058422.9963643</v>
-      </c>
-      <c r="F73" t="n">
-        <v>10300190.86063294</v>
-      </c>
-      <c r="G73" t="n">
-        <v>10444659.58277378</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10796338.87500767</v>
-      </c>
-      <c r="I73" t="n">
-        <v>11043167.41661123</v>
-      </c>
-      <c r="J73" t="n">
-        <v>11284935.28087988</v>
-      </c>
-      <c r="K73" t="n">
-        <v>11429404.00302072</v>
-      </c>
-      <c r="L73" t="n">
-        <v>11781083.29525461</v>
-      </c>
-      <c r="M73" t="n">
-        <v>12027911.83685817</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>18755310.53803615</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20849868.50084838</v>
-      </c>
-      <c r="D74" t="n">
-        <v>17439627.75429783</v>
-      </c>
-      <c r="E74" t="n">
-        <v>17981608.54930995</v>
-      </c>
-      <c r="F74" t="n">
-        <v>19019439.308503</v>
-      </c>
-      <c r="G74" t="n">
-        <v>21113997.27131523</v>
-      </c>
-      <c r="H74" t="n">
-        <v>17703756.52476468</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18245737.3197768</v>
-      </c>
-      <c r="J74" t="n">
-        <v>19283568.07896985</v>
-      </c>
-      <c r="K74" t="n">
-        <v>21378126.04178208</v>
-      </c>
-      <c r="L74" t="n">
-        <v>17967885.29523153</v>
-      </c>
-      <c r="M74" t="n">
-        <v>18509866.09024365</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>23206709.40089078</v>
-      </c>
-      <c r="C75" t="n">
-        <v>25537650.43056503</v>
-      </c>
-      <c r="D75" t="n">
-        <v>24121198.75213348</v>
-      </c>
-      <c r="E75" t="n">
-        <v>25985548.50003357</v>
-      </c>
-      <c r="F75" t="n">
-        <v>24914367.33087163</v>
-      </c>
-      <c r="G75" t="n">
-        <v>27245308.36054588</v>
-      </c>
-      <c r="H75" t="n">
-        <v>25828856.68211434</v>
-      </c>
-      <c r="I75" t="n">
-        <v>27693206.43001443</v>
-      </c>
-      <c r="J75" t="n">
-        <v>26622025.26085249</v>
-      </c>
-      <c r="K75" t="n">
-        <v>28952966.29052674</v>
-      </c>
-      <c r="L75" t="n">
-        <v>27536514.6120952</v>
-      </c>
-      <c r="M75" t="n">
-        <v>29400864.35999529</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>15580539.70126326</v>
-      </c>
-      <c r="C76" t="n">
-        <v>17351397.00625135</v>
-      </c>
-      <c r="D76" t="n">
-        <v>19121528.42595237</v>
-      </c>
-      <c r="E76" t="n">
-        <v>20892460.4001393</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22663650.67399716</v>
-      </c>
-      <c r="G76" t="n">
-        <v>24434507.97898525</v>
-      </c>
-      <c r="H76" t="n">
-        <v>26204639.39868627</v>
-      </c>
-      <c r="I76" t="n">
-        <v>27975571.3728732</v>
-      </c>
-      <c r="J76" t="n">
-        <v>29746761.64673106</v>
-      </c>
-      <c r="K76" t="n">
-        <v>31517618.95171915</v>
-      </c>
-      <c r="L76" t="n">
-        <v>33287750.37142017</v>
-      </c>
-      <c r="M76" t="n">
-        <v>35058682.3456071</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>17486598.47982434</v>
-      </c>
-      <c r="C77" t="n">
-        <v>18411418.3070727</v>
-      </c>
-      <c r="D77" t="n">
-        <v>19336920.57805642</v>
-      </c>
-      <c r="E77" t="n">
-        <v>20263095.04039047</v>
-      </c>
-      <c r="F77" t="n">
-        <v>21187337.51976941</v>
-      </c>
-      <c r="G77" t="n">
-        <v>22112157.34701777</v>
-      </c>
-      <c r="H77" t="n">
-        <v>23037659.61800149</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23963834.08033554</v>
-      </c>
-      <c r="J77" t="n">
-        <v>24888076.55971447</v>
-      </c>
-      <c r="K77" t="n">
-        <v>25812896.38696283</v>
-      </c>
-      <c r="L77" t="n">
-        <v>26738398.65794655</v>
-      </c>
-      <c r="M77" t="n">
-        <v>27664573.1202806</v>
+        <v>3917752.107482356</v>
       </c>
     </row>
   </sheetData>
